--- a/data/2017_Business_Parks.xlsx
+++ b/data/2017_Business_Parks.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Business Parks Map\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\3 (Marketing)\3K (Website)\2019 Website Updates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3FF614AC-2D0D-410B-B852-5AF90CA55A30}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20355" windowHeight="5730"/>
+    <workbookView xWindow="28680" yWindow="-1230" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1438" uniqueCount="797">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1438" uniqueCount="800">
   <si>
     <t>Arlington</t>
   </si>
@@ -848,15 +849,6 @@
     <t>Build to-suit-lease</t>
   </si>
   <si>
-    <t>High Crossing Office Park</t>
-  </si>
-  <si>
-    <t>$10 to $15.50 per SF Triple Net</t>
-  </si>
-  <si>
-    <t>Iainvestors</t>
-  </si>
-  <si>
     <t>PUD</t>
   </si>
   <si>
@@ -866,9 +858,6 @@
     <t>608-830-6308</t>
   </si>
   <si>
-    <t>briemen@vantacp.com</t>
-  </si>
-  <si>
     <t>Tradesman Industrial Park</t>
   </si>
   <si>
@@ -2499,12 +2488,33 @@
   </si>
   <si>
     <t>pcannon@whitewater-wi.gov</t>
+  </si>
+  <si>
+    <t>http://iamgtllc.com/commercial/</t>
+  </si>
+  <si>
+    <t>The Park at High Crossing</t>
+  </si>
+  <si>
+    <t>Negotiable; Lease Rate: $10-$18 NNN</t>
+  </si>
+  <si>
+    <t>Investors Associated, LLP</t>
+  </si>
+  <si>
+    <t>Ben Hurd</t>
+  </si>
+  <si>
+    <t>608-828-8888</t>
+  </si>
+  <si>
+    <t>bhurd@iamgtllc.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7">
     <font>
       <sz val="11"/>
@@ -3362,11 +3372,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="C85" sqref="C85"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R35" sqref="R35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3468,7 +3479,7 @@
         <v>144</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>4</v>
@@ -3480,7 +3491,7 @@
         <v>2</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>6</v>
@@ -3527,7 +3538,7 @@
         <v>4</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>20</v>
@@ -3586,7 +3597,7 @@
         <v>50</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>20</v>
@@ -3595,7 +3606,7 @@
         <v>54</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>30</v>
@@ -3657,7 +3668,7 @@
         <v>1.5</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="L5" s="8" t="s">
         <v>15</v>
@@ -3707,7 +3718,7 @@
         <v>67</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>5</v>
@@ -3725,7 +3736,7 @@
         <v>7</v>
       </c>
       <c r="N6" s="12" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>69</v>
@@ -3757,13 +3768,13 @@
         <v>74</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="F7" s="11">
         <v>1.1599999999999999</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>20</v>
@@ -3825,7 +3836,7 @@
         <v>81</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>6</v>
@@ -3881,7 +3892,7 @@
         <v>4.5</v>
       </c>
       <c r="G9" s="37" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="H9" s="42" t="s">
         <v>89</v>
@@ -3940,7 +3951,7 @@
         <v>19</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>20</v>
@@ -3999,10 +4010,10 @@
         <v>32.020000000000003</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>6</v>
@@ -4058,7 +4069,7 @@
         <v>135</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="H12" s="44" t="s">
         <v>108</v>
@@ -4070,7 +4081,7 @@
         <v>1.5</v>
       </c>
       <c r="K12" s="44" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>6</v>
@@ -4117,7 +4128,7 @@
         <v>226</v>
       </c>
       <c r="G13" s="42" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="H13" s="42" t="s">
         <v>115</v>
@@ -4129,7 +4140,7 @@
         <v>1</v>
       </c>
       <c r="K13" s="50" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="L13" s="41" t="s">
         <v>6</v>
@@ -4188,7 +4199,7 @@
         <v>1.32</v>
       </c>
       <c r="K14" s="44" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="L14" s="55" t="s">
         <v>6</v>
@@ -4294,7 +4305,7 @@
         <v>46</v>
       </c>
       <c r="G16" s="67" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="H16" s="8" t="s">
         <v>20</v>
@@ -4589,7 +4600,7 @@
         <v>7.5</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="H21" s="14" t="s">
         <v>25</v>
@@ -4598,7 +4609,7 @@
         <v>169</v>
       </c>
       <c r="J21" s="17" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="K21" s="14" t="s">
         <v>170</v>
@@ -4766,7 +4777,7 @@
         <v>190</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="H24" s="8" t="s">
         <v>191</v>
@@ -4825,7 +4836,7 @@
         <v>74</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>191</v>
@@ -4884,7 +4895,7 @@
         <v>49.7</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="H26" s="8" t="s">
         <v>203</v>
@@ -4952,10 +4963,10 @@
         <v>6</v>
       </c>
       <c r="J27" s="11" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="K27" s="8" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="L27" s="8" t="s">
         <v>6</v>
@@ -5005,7 +5016,7 @@
         <v>218</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="I28" s="8" t="s">
         <v>219</v>
@@ -5014,7 +5025,7 @@
         <v>1.74</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="L28" s="8" t="s">
         <v>6</v>
@@ -5058,7 +5069,7 @@
         <v>177</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>222</v>
@@ -5120,7 +5131,7 @@
         <v>5</v>
       </c>
       <c r="G30" s="37" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="H30" s="42" t="s">
         <v>229</v>
@@ -5188,7 +5199,7 @@
         <v>6</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="K31" s="1" t="s">
         <v>238</v>
@@ -5200,7 +5211,7 @@
         <v>7</v>
       </c>
       <c r="N31" s="4" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="O31" s="1" t="s">
         <v>239</v>
@@ -5247,7 +5258,7 @@
         <v>6</v>
       </c>
       <c r="J32" s="43" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="K32" s="42" t="s">
         <v>241</v>
@@ -5259,7 +5270,7 @@
         <v>7</v>
       </c>
       <c r="N32" s="41" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="O32" s="1" t="s">
         <v>239</v>
@@ -5304,7 +5315,7 @@
         <v>6</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="K33" s="1" t="s">
         <v>241</v>
@@ -5316,7 +5327,7 @@
         <v>7</v>
       </c>
       <c r="N33" s="4" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="O33" s="1" t="s">
         <v>239</v>
@@ -5363,7 +5374,7 @@
         <v>6</v>
       </c>
       <c r="J34" s="43" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="K34" s="42" t="s">
         <v>241</v>
@@ -5375,7 +5386,7 @@
         <v>7</v>
       </c>
       <c r="N34" s="41" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="O34" s="1" t="s">
         <v>239</v>
@@ -5401,22 +5412,22 @@
         <v>56</v>
       </c>
       <c r="C35" s="73" t="s">
-        <v>246</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>14</v>
+        <v>794</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>793</v>
       </c>
       <c r="E35" s="36">
         <v>190</v>
       </c>
       <c r="F35" s="3">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>247</v>
+        <v>795</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>248</v>
+        <v>796</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>6</v>
@@ -5425,25 +5436,25 @@
         <v>1</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>6</v>
+        <v>660</v>
       </c>
       <c r="M35" s="1" t="s">
         <v>7</v>
       </c>
       <c r="N35" s="4">
-        <v>40</v>
+        <v>21.5</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>250</v>
+        <v>797</v>
       </c>
       <c r="P35" s="53" t="s">
-        <v>251</v>
+        <v>798</v>
       </c>
       <c r="Q35" s="46" t="s">
-        <v>252</v>
+        <v>799</v>
       </c>
       <c r="R35" s="74">
         <v>43.133276000000002</v>
@@ -5460,10 +5471,10 @@
         <v>56</v>
       </c>
       <c r="C36" s="38" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E36" s="75">
         <v>90</v>
@@ -5472,7 +5483,7 @@
         <v>64.77</v>
       </c>
       <c r="G36" s="42" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="H36" s="42" t="s">
         <v>203</v>
@@ -5484,7 +5495,7 @@
         <v>1.48</v>
       </c>
       <c r="K36" s="42" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="L36" s="42" t="s">
         <v>6</v>
@@ -5519,10 +5530,10 @@
         <v>56</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E37" s="3">
         <v>27</v>
@@ -5531,7 +5542,7 @@
         <v>23.9</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>203</v>
@@ -5543,7 +5554,7 @@
         <v>3.3</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="L37" s="1" t="s">
         <v>6</v>
@@ -5578,10 +5589,10 @@
         <v>56</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D38" s="39" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E38" s="40">
         <v>300</v>
@@ -5590,19 +5601,19 @@
         <v>20</v>
       </c>
       <c r="G38" s="37" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="H38" s="78" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="I38" s="42" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="J38" s="43" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="K38" s="42" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="L38" s="37" t="s">
         <v>6</v>
@@ -5614,13 +5625,13 @@
         <v>12</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="P38" s="53" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="Q38" s="46" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="R38" s="40">
         <v>43.130954000000003</v>
@@ -5637,10 +5648,10 @@
         <v>56</v>
       </c>
       <c r="C39" s="38" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="E39" s="3">
         <v>70</v>
@@ -5649,22 +5660,22 @@
         <v>30</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="H39" s="79" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="I39" s="44" t="s">
         <v>15</v>
       </c>
       <c r="J39" s="53" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="K39" s="44" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="L39" s="79" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="M39" s="44" t="s">
         <v>7</v>
@@ -5673,13 +5684,13 @@
         <v>8.5</v>
       </c>
       <c r="O39" s="44" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="P39" s="53" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="Q39" s="46" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="R39" s="36">
         <v>43.035795</v>
@@ -5696,22 +5707,22 @@
         <v>56</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="E40" s="3">
         <v>19</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>6</v>
@@ -5720,7 +5731,7 @@
         <v>134</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="L40" s="1" t="s">
         <v>6</v>
@@ -5732,13 +5743,13 @@
         <v>19</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="P40" s="53" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="Q40" s="46" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="R40" s="36">
         <v>43.122520000000002</v>
@@ -5755,7 +5766,7 @@
         <v>56</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>14</v>
@@ -5764,13 +5775,13 @@
         <v>11</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="I41" s="8" t="s">
         <v>6</v>
@@ -5779,7 +5790,7 @@
         <v>1.75</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L41" s="8" t="s">
         <v>6</v>
@@ -5788,16 +5799,16 @@
         <v>7</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="P41" s="69" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="Q41" s="46" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="R41" s="81">
         <v>43.061480000000003</v>
@@ -5814,25 +5825,25 @@
         <v>56</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E42" s="3">
         <v>193</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>203</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="J42" s="3">
         <v>3.45</v>
@@ -5853,7 +5864,7 @@
         <v>11</v>
       </c>
       <c r="P42" s="53" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="Q42" s="46" t="s">
         <v>12</v>
@@ -5873,10 +5884,10 @@
         <v>56</v>
       </c>
       <c r="C43" s="38" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="E43" s="75">
         <v>34</v>
@@ -5885,10 +5896,10 @@
         <v>22.96</v>
       </c>
       <c r="G43" s="42" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="H43" s="42" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="I43" s="42" t="s">
         <v>15</v>
@@ -5897,7 +5908,7 @@
         <v>1</v>
       </c>
       <c r="K43" s="42" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="L43" s="42" t="s">
         <v>6</v>
@@ -5909,13 +5920,13 @@
         <v>11</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="P43" s="53" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="Q43" s="46" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="R43" s="40">
         <v>43.042110999999998</v>
@@ -5932,7 +5943,7 @@
         <v>56</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>14</v>
@@ -5947,34 +5958,34 @@
         <v>81</v>
       </c>
       <c r="H44" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N44" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="P44" s="45" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q44" s="46" t="s">
         <v>304</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="L44" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M44" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N44" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="O44" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="P44" s="45" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q44" s="46" t="s">
-        <v>308</v>
       </c>
       <c r="R44" s="36">
         <v>43.125219000000001</v>
@@ -5991,10 +6002,10 @@
         <v>56</v>
       </c>
       <c r="C45" s="38" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="E45" s="40">
         <v>60</v>
@@ -6003,7 +6014,7 @@
         <v>17.100000000000001</v>
       </c>
       <c r="G45" s="37" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="H45" s="42" t="s">
         <v>203</v>
@@ -6015,7 +6026,7 @@
         <v>0.92</v>
       </c>
       <c r="K45" s="42" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="L45" s="37" t="s">
         <v>6</v>
@@ -6024,7 +6035,7 @@
         <v>7</v>
       </c>
       <c r="N45" s="40" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="O45" s="1" t="s">
         <v>117</v>
@@ -6044,16 +6055,16 @@
     </row>
     <row r="46" spans="1:19" ht="15.75" thickBot="1">
       <c r="A46" s="8" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B46" s="76" t="s">
         <v>56</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D46" s="33" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E46" s="11">
         <v>64</v>
@@ -6065,16 +6076,16 @@
         <v>81</v>
       </c>
       <c r="H46" s="8" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="I46" s="8" t="s">
         <v>6</v>
       </c>
       <c r="J46" s="11" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="K46" s="8" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="L46" s="8" t="s">
         <v>6</v>
@@ -6103,16 +6114,16 @@
     </row>
     <row r="47" spans="1:19" ht="15.75" thickBot="1">
       <c r="A47" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B47" s="29" t="s">
         <v>56</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E47" s="3">
         <v>100</v>
@@ -6121,19 +6132,19 @@
         <v>4</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>124</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="L47" s="1" t="s">
         <v>6</v>
@@ -6145,13 +6156,13 @@
         <v>1.5</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="P47" s="45" t="s">
         <v>126</v>
       </c>
       <c r="Q47" s="46" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="R47" s="36">
         <v>43.098267999999997</v>
@@ -6162,28 +6173,28 @@
     </row>
     <row r="48" spans="1:19" ht="15.75" thickBot="1">
       <c r="A48" s="83" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B48" s="84" t="s">
         <v>56</v>
       </c>
       <c r="C48" s="38" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>235</v>
       </c>
       <c r="E48" s="40" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F48" s="41">
         <v>39.6</v>
       </c>
       <c r="G48" s="37" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="H48" s="42" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="I48" s="42" t="s">
         <v>124</v>
@@ -6192,7 +6203,7 @@
         <v>2.4</v>
       </c>
       <c r="K48" s="42" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="L48" s="37" t="s">
         <v>6</v>
@@ -6221,16 +6232,16 @@
     </row>
     <row r="49" spans="1:19" ht="15.75" thickBot="1">
       <c r="A49" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B49" s="29" t="s">
         <v>56</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E49" s="3">
         <v>80</v>
@@ -6239,10 +6250,10 @@
         <v>28</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>124</v>
@@ -6251,7 +6262,7 @@
         <v>3.33</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="L49" s="1" t="s">
         <v>6</v>
@@ -6263,13 +6274,13 @@
         <v>15</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="P49" s="45" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="Q49" s="46" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="R49" s="36">
         <v>43.107294000000003</v>
@@ -6280,16 +6291,16 @@
     </row>
     <row r="50" spans="1:19" ht="15.75" thickBot="1">
       <c r="A50" s="8" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B50" s="76" t="s">
         <v>56</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="E50" s="11">
         <v>62</v>
@@ -6298,10 +6309,10 @@
         <v>4</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="H50" s="8" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="I50" s="8" t="s">
         <v>124</v>
@@ -6310,7 +6321,7 @@
         <v>0.5</v>
       </c>
       <c r="K50" s="8" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="L50" s="8" t="s">
         <v>6</v>
@@ -6322,13 +6333,13 @@
         <v>2.25</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="P50" s="69" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="Q50" s="46" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="R50" s="3">
         <v>43.090904000000002</v>
@@ -6339,16 +6350,16 @@
     </row>
     <row r="51" spans="1:19" ht="16.5" customHeight="1" thickBot="1">
       <c r="A51" s="85" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B51" s="86" t="s">
         <v>56</v>
       </c>
       <c r="C51" s="85" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D51" s="87" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="E51" s="88">
         <v>52</v>
@@ -6360,7 +6371,7 @@
         <v>81</v>
       </c>
       <c r="H51" s="89" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="I51" s="85" t="s">
         <v>54</v>
@@ -6369,7 +6380,7 @@
         <v>134</v>
       </c>
       <c r="K51" s="85" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="L51" s="85" t="s">
         <v>6</v>
@@ -6381,13 +6392,13 @@
         <v>30</v>
       </c>
       <c r="O51" s="85" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="P51" s="134" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="Q51" s="135" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="R51" s="91">
         <v>43.171326000000001</v>
@@ -6398,13 +6409,13 @@
     </row>
     <row r="52" spans="1:19" ht="15.75" thickBot="1">
       <c r="A52" s="13" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B52" s="84" t="s">
         <v>56</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="D52" s="60" t="s">
         <v>235</v>
@@ -6416,7 +6427,7 @@
         <v>28.5</v>
       </c>
       <c r="G52" s="14" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="H52" s="14" t="s">
         <v>25</v>
@@ -6428,7 +6439,7 @@
         <v>1.5</v>
       </c>
       <c r="K52" s="14" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="L52" s="14" t="s">
         <v>6</v>
@@ -6457,35 +6468,35 @@
     </row>
     <row r="53" spans="1:19" ht="15.75" thickBot="1">
       <c r="A53" s="28" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B53" s="76" t="s">
         <v>56</v>
       </c>
       <c r="C53" s="30" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="E53" s="31"/>
       <c r="F53" s="11" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="H53" s="8" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="I53" s="8" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="J53" s="11" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="K53" s="8" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="L53" s="37" t="s">
         <v>6</v>
@@ -6497,13 +6508,13 @@
         <v>4.42</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="P53" s="93" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="Q53" s="46" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="R53" s="3">
         <v>43.120621999999997</v>
@@ -6514,16 +6525,16 @@
     </row>
     <row r="54" spans="1:19" ht="15.75" thickBot="1">
       <c r="A54" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B54" s="29" t="s">
         <v>56</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="E54" s="3">
         <v>55</v>
@@ -6532,10 +6543,10 @@
         <v>9.1</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>6</v>
@@ -6544,7 +6555,7 @@
         <v>1.9</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="L54" s="1" t="s">
         <v>6</v>
@@ -6556,13 +6567,13 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="P54" s="45" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="Q54" s="46" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="R54" s="3">
         <v>43.188647000000003</v>
@@ -6573,16 +6584,16 @@
     </row>
     <row r="55" spans="1:19" ht="15.75" thickBot="1">
       <c r="A55" s="28" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B55" s="29" t="s">
         <v>56</v>
       </c>
       <c r="C55" s="30" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="E55" s="31">
         <v>420</v>
@@ -6591,19 +6602,19 @@
         <v>88</v>
       </c>
       <c r="G55" s="94" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="H55" s="8" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="I55" s="8" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="J55" s="11">
         <v>1</v>
       </c>
       <c r="K55" s="8" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="L55" s="8" t="s">
         <v>6</v>
@@ -6615,13 +6626,13 @@
         <v>64</v>
       </c>
       <c r="O55" s="95" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="P55" s="93" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="Q55" s="46" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="R55" s="3">
         <v>43.200698000000003</v>
@@ -6632,16 +6643,16 @@
     </row>
     <row r="56" spans="1:19" ht="15.75" thickBot="1">
       <c r="A56" s="28" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B56" s="29" t="s">
         <v>56</v>
       </c>
       <c r="C56" s="30" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="E56" s="31">
         <v>24.92</v>
@@ -6650,19 +6661,19 @@
         <v>7.96</v>
       </c>
       <c r="G56" s="8" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="H56" s="8" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="I56" s="8" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="J56" s="11" t="s">
         <v>7</v>
       </c>
       <c r="K56" s="8" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="L56" s="8" t="s">
         <v>6</v>
@@ -6674,13 +6685,13 @@
         <v>3.44</v>
       </c>
       <c r="O56" s="95" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="P56" s="93" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="Q56" s="46" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="R56" s="3">
         <v>43.157153999999998</v>
@@ -6691,16 +6702,16 @@
     </row>
     <row r="57" spans="1:19" ht="15.75" thickBot="1">
       <c r="A57" s="34" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B57" s="29" t="s">
         <v>56</v>
       </c>
       <c r="C57" s="73" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E57" s="36">
         <v>250</v>
@@ -6709,10 +6720,10 @@
         <v>139.19999999999999</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>15</v>
@@ -6721,7 +6732,7 @@
         <v>1.5</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="L57" s="1" t="s">
         <v>6</v>
@@ -6730,16 +6741,16 @@
         <v>7</v>
       </c>
       <c r="N57" s="4" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="P57" s="96" t="s">
         <v>126</v>
       </c>
       <c r="Q57" s="46" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="R57" s="3">
         <v>42.971015999999999</v>
@@ -6750,28 +6761,28 @@
     </row>
     <row r="58" spans="1:19" ht="15.75" thickBot="1">
       <c r="A58" s="37" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B58" s="29" t="s">
         <v>56</v>
       </c>
       <c r="C58" s="38" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D58" s="97" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E58" s="40">
         <v>253</v>
       </c>
       <c r="F58" s="41" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G58" s="37" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="H58" s="14" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="I58" s="42" t="s">
         <v>133</v>
@@ -6780,25 +6791,25 @@
         <v>2</v>
       </c>
       <c r="K58" s="42" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="L58" s="37" t="s">
         <v>15</v>
       </c>
       <c r="M58" s="42" t="s">
+        <v>388</v>
+      </c>
+      <c r="N58" s="40" t="s">
+        <v>389</v>
+      </c>
+      <c r="O58" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="P58" s="52" t="s">
+        <v>391</v>
+      </c>
+      <c r="Q58" s="46" t="s">
         <v>392</v>
-      </c>
-      <c r="N58" s="40" t="s">
-        <v>393</v>
-      </c>
-      <c r="O58" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="P58" s="52" t="s">
-        <v>395</v>
-      </c>
-      <c r="Q58" s="46" t="s">
-        <v>396</v>
       </c>
       <c r="R58" s="3">
         <v>42.974694999999997</v>
@@ -6809,13 +6820,13 @@
     </row>
     <row r="59" spans="1:19" ht="15.75" thickBot="1">
       <c r="A59" s="28" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B59" s="29" t="s">
         <v>56</v>
       </c>
       <c r="C59" s="30" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>14</v>
@@ -6830,7 +6841,7 @@
         <v>81</v>
       </c>
       <c r="H59" s="8" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="I59" s="8" t="s">
         <v>6</v>
@@ -6839,25 +6850,25 @@
         <v>4</v>
       </c>
       <c r="K59" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="L59" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="M59" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="N59" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="O59" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="P59" s="93" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q59" s="46" t="s">
         <v>400</v>
-      </c>
-      <c r="L59" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="M59" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="N59" s="12" t="s">
-        <v>401</v>
-      </c>
-      <c r="O59" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="P59" s="93" t="s">
-        <v>403</v>
-      </c>
-      <c r="Q59" s="46" t="s">
-        <v>404</v>
       </c>
       <c r="R59" s="3">
         <v>43.244573000000003</v>
@@ -6868,16 +6879,16 @@
     </row>
     <row r="60" spans="1:19" ht="15.75" thickBot="1">
       <c r="A60" s="34" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B60" s="29" t="s">
         <v>56</v>
       </c>
       <c r="C60" s="73" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="E60" s="36">
         <v>160</v>
@@ -6886,10 +6897,10 @@
         <v>86</v>
       </c>
       <c r="G60" s="44" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="I60" s="1" t="s">
         <v>15</v>
@@ -6898,7 +6909,7 @@
         <v>3</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="L60" s="1" t="s">
         <v>6</v>
@@ -6913,7 +6924,7 @@
         <v>212</v>
       </c>
       <c r="P60" s="96" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="Q60" s="46" t="s">
         <v>214</v>
@@ -6927,13 +6938,13 @@
     </row>
     <row r="61" spans="1:19" ht="15.75" thickBot="1">
       <c r="A61" s="13" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B61" s="29" t="s">
         <v>56</v>
       </c>
       <c r="C61" s="15" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="D61" s="5" t="s">
         <v>235</v>
@@ -6945,25 +6956,25 @@
         <v>57</v>
       </c>
       <c r="G61" s="14" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="H61" s="14" t="s">
         <v>25</v>
       </c>
       <c r="I61" s="14" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="J61" s="17">
         <v>5</v>
       </c>
       <c r="K61" s="14" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="L61" s="14" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="M61" s="14" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="N61" s="18">
         <v>56.8</v>
@@ -6986,13 +6997,13 @@
     </row>
     <row r="62" spans="1:19" ht="15.75" thickBot="1">
       <c r="A62" s="28" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C62" s="30" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>14</v>
@@ -7004,10 +7015,10 @@
         <v>40.200000000000003</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="H62" s="8" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="I62" s="8" t="s">
         <v>54</v>
@@ -7016,7 +7027,7 @@
         <v>1</v>
       </c>
       <c r="K62" s="8" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="L62" s="8" t="s">
         <v>6</v>
@@ -7028,13 +7039,13 @@
         <v>15.5</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="Q62" s="5" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="R62" s="74">
         <v>43.483047999999997</v>
@@ -7045,13 +7056,13 @@
     </row>
     <row r="63" spans="1:19" ht="15.75" thickBot="1">
       <c r="A63" s="34" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C63" s="73" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>14</v>
@@ -7063,10 +7074,10 @@
         <v>10</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="I63" s="8" t="s">
         <v>54</v>
@@ -7075,7 +7086,7 @@
         <v>2</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="L63" s="1" t="s">
         <v>6</v>
@@ -7087,13 +7098,13 @@
         <v>10</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="P63" s="1" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="Q63" s="5" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="R63" s="74">
         <v>43.48104</v>
@@ -7104,16 +7115,16 @@
     </row>
     <row r="64" spans="1:19" ht="15.75" thickBot="1">
       <c r="A64" s="28" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B64" s="29" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C64" s="30" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="E64" s="31">
         <v>196.6</v>
@@ -7122,10 +7133,10 @@
         <v>144.69999999999999</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="H64" s="8" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="I64" s="8" t="s">
         <v>116</v>
@@ -7134,7 +7145,7 @@
         <v>1</v>
       </c>
       <c r="K64" s="8" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="L64" s="8" t="s">
         <v>15</v>
@@ -7143,16 +7154,16 @@
         <v>165</v>
       </c>
       <c r="N64" s="12" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="O64" s="1" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="P64" s="1" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="Q64" s="5" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="R64" s="32">
         <v>43.488793000000001</v>
@@ -7163,16 +7174,16 @@
     </row>
     <row r="65" spans="1:19" ht="15.75" thickBot="1">
       <c r="A65" s="34" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="B65" s="29" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C65" s="73" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="E65" s="36">
         <v>62</v>
@@ -7181,13 +7192,13 @@
         <v>13</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="J65" s="3">
         <v>1</v>
@@ -7205,13 +7216,13 @@
         <v>28</v>
       </c>
       <c r="O65" s="44" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="P65" s="1" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="Q65" s="5" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="R65" s="74">
         <v>43.556024000000001</v>
@@ -7222,16 +7233,16 @@
     </row>
     <row r="66" spans="1:19" ht="15.75" thickBot="1">
       <c r="A66" s="37" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B66" s="29" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C66" s="38" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="E66" s="75">
         <v>150</v>
@@ -7240,13 +7251,13 @@
         <v>120</v>
       </c>
       <c r="G66" s="37" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="H66" s="42" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="I66" s="42" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="J66" s="43">
         <v>2</v>
@@ -7264,13 +7275,13 @@
         <v>120</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="Q66" s="5" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="R66" s="40">
         <v>43.446024999999999</v>
@@ -7281,16 +7292,16 @@
     </row>
     <row r="67" spans="1:19" ht="15.75" thickBot="1">
       <c r="A67" s="28" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B67" s="29" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C67" s="30" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="E67" s="31">
         <v>11.7</v>
@@ -7299,37 +7310,37 @@
         <v>10</v>
       </c>
       <c r="G67" s="8" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="H67" s="8" t="s">
         <v>20</v>
       </c>
       <c r="I67" s="8" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="J67" s="11" t="s">
         <v>134</v>
       </c>
       <c r="K67" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="L67" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="M67" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="N67" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="O67" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="P67" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="Q67" s="5" t="s">
         <v>447</v>
-      </c>
-      <c r="L67" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="M67" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="N67" s="12" t="s">
-        <v>448</v>
-      </c>
-      <c r="O67" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="P67" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="Q67" s="5" t="s">
-        <v>451</v>
       </c>
       <c r="R67" s="32">
         <v>43.336145999999999</v>
@@ -7340,16 +7351,16 @@
     </row>
     <row r="68" spans="1:19" ht="15.75" thickBot="1">
       <c r="A68" s="34" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="B68" s="29" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C68" s="73" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="E68" s="36">
         <v>80</v>
@@ -7358,37 +7369,37 @@
         <v>35</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>20</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="J68" s="3">
         <v>0.5</v>
       </c>
       <c r="K68" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M68" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N68" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="O68" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="P68" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="Q68" s="5" t="s">
         <v>455</v>
-      </c>
-      <c r="L68" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M68" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N68" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="O68" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="P68" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="Q68" s="5" t="s">
-        <v>459</v>
       </c>
       <c r="R68" s="74">
         <v>43.399445999999998</v>
@@ -7399,16 +7410,16 @@
     </row>
     <row r="69" spans="1:19" ht="15.75" thickBot="1">
       <c r="A69" s="28" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="B69" s="29" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C69" s="30" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="E69" s="31">
         <v>111.69</v>
@@ -7417,10 +7428,10 @@
         <v>74.459999999999994</v>
       </c>
       <c r="G69" s="71" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="H69" s="8" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="I69" s="8" t="s">
         <v>124</v>
@@ -7429,25 +7440,25 @@
         <v>1</v>
       </c>
       <c r="K69" s="8" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="L69" s="8" t="s">
         <v>15</v>
       </c>
       <c r="M69" s="71" t="s">
+        <v>461</v>
+      </c>
+      <c r="N69" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="O69" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="P69" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="Q69" s="5" t="s">
         <v>465</v>
-      </c>
-      <c r="N69" s="12" t="s">
-        <v>466</v>
-      </c>
-      <c r="O69" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="P69" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="Q69" s="5" t="s">
-        <v>469</v>
       </c>
       <c r="R69" s="32">
         <v>43.509168000000003</v>
@@ -7458,13 +7469,13 @@
     </row>
     <row r="70" spans="1:19" ht="15.75" thickBot="1">
       <c r="A70" s="98" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="B70" s="99" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C70" s="73" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="D70" s="95" t="s">
         <v>14</v>
@@ -7476,19 +7487,19 @@
         <v>17.899999999999999</v>
       </c>
       <c r="G70" s="95" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="H70" s="95" t="s">
         <v>20</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="J70" s="101">
         <v>6</v>
       </c>
       <c r="K70" s="95" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="L70" s="95" t="s">
         <v>6</v>
@@ -7500,13 +7511,13 @@
         <v>10.4</v>
       </c>
       <c r="O70" s="95" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="P70" s="1" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="Q70" s="5" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="R70" s="104">
         <v>43.528990999999998</v>
@@ -7517,16 +7528,16 @@
     </row>
     <row r="71" spans="1:19" ht="15.75" thickBot="1">
       <c r="A71" s="98" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="B71" s="99" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C71" s="105" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="E71" s="100">
         <v>95</v>
@@ -7535,7 +7546,7 @@
         <v>95</v>
       </c>
       <c r="G71" s="95" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="H71" s="95" t="s">
         <v>20</v>
@@ -7547,7 +7558,7 @@
         <v>5</v>
       </c>
       <c r="K71" s="95" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="L71" s="95" t="s">
         <v>6</v>
@@ -7559,13 +7570,13 @@
         <v>200</v>
       </c>
       <c r="O71" s="95" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="P71" s="1" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="Q71" s="5" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="R71" s="104">
         <v>43.616515999999997</v>
@@ -7576,13 +7587,13 @@
     </row>
     <row r="72" spans="1:19" ht="15.75" thickBot="1">
       <c r="A72" s="106" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="B72" s="107" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C72" s="108" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="D72" s="109" t="s">
         <v>14</v>
@@ -7594,19 +7605,19 @@
         <v>7.5</v>
       </c>
       <c r="G72" s="109" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="H72" s="109" t="s">
         <v>20</v>
       </c>
       <c r="I72" s="109" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="J72" s="111">
         <v>1</v>
       </c>
       <c r="K72" s="109" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="L72" s="109" t="s">
         <v>6</v>
@@ -7618,13 +7629,13 @@
         <v>7.5</v>
       </c>
       <c r="O72" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="P72" s="113" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="Q72" s="114" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="R72" s="110">
         <v>42.614013</v>
@@ -7635,16 +7646,16 @@
     </row>
     <row r="73" spans="1:19" ht="15.75" thickBot="1">
       <c r="A73" s="28" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C73" s="65" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="E73" s="11">
         <v>88.29</v>
@@ -7653,10 +7664,10 @@
         <v>88.29</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="H73" s="8" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="I73" s="8" t="s">
         <v>15</v>
@@ -7665,7 +7676,7 @@
         <v>7</v>
       </c>
       <c r="K73" s="8" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="L73" s="8" t="s">
         <v>6</v>
@@ -7677,13 +7688,13 @@
         <v>88.29</v>
       </c>
       <c r="O73" s="1" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="P73" s="65" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="Q73" s="115" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="R73" s="31">
         <v>43.160015999999999</v>
@@ -7694,37 +7705,37 @@
     </row>
     <row r="74" spans="1:19" ht="15.75" thickBot="1">
       <c r="A74" s="34" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C74" s="35" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>81</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="L74" s="1" t="s">
         <v>6</v>
@@ -7736,13 +7747,13 @@
         <v>94</v>
       </c>
       <c r="O74" s="1" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="P74" s="35" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="Q74" s="116" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="R74" s="36">
         <v>42.973591999999996</v>
@@ -7753,16 +7764,16 @@
     </row>
     <row r="75" spans="1:19" ht="15.75" thickBot="1">
       <c r="A75" s="1" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="B75" s="29" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="E75" s="3">
         <v>15</v>
@@ -7771,7 +7782,7 @@
         <v>4</v>
       </c>
       <c r="G75" s="29" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>20</v>
@@ -7783,7 +7794,7 @@
         <v>4</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="L75" s="1" t="s">
         <v>6</v>
@@ -7795,13 +7806,13 @@
         <v>4</v>
       </c>
       <c r="O75" s="1" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="P75" s="1" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="Q75" s="5" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="R75" s="117">
         <v>43.050293000000003</v>
@@ -7812,16 +7823,16 @@
     </row>
     <row r="76" spans="1:19" ht="15.75" thickBot="1">
       <c r="A76" s="13" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="B76" s="29" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="D76" s="60" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="E76" s="16">
         <v>360</v>
@@ -7830,7 +7841,7 @@
         <v>22.5</v>
       </c>
       <c r="G76" s="14" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="H76" s="14" t="s">
         <v>20</v>
@@ -7839,7 +7850,7 @@
         <v>15</v>
       </c>
       <c r="J76" s="17" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="K76" s="14" t="s">
         <v>26</v>
@@ -7851,16 +7862,16 @@
         <v>7</v>
       </c>
       <c r="N76" s="18" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="O76" s="1" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="P76" s="59" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="Q76" s="118" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="R76" s="16">
         <v>43.182326000000003</v>
@@ -7871,25 +7882,25 @@
     </row>
     <row r="77" spans="1:19" ht="15.75" thickBot="1">
       <c r="A77" s="1" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="B77" s="29" t="s">
+        <v>523</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="D77" s="133" t="s">
         <v>527</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="D77" s="133" t="s">
-        <v>531</v>
       </c>
       <c r="E77" s="3">
         <v>163</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>20</v>
@@ -7901,25 +7912,25 @@
         <v>2</v>
       </c>
       <c r="K77" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="L77" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M77" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N77" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="O77" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="P77" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="Q77" s="5" t="s">
         <v>533</v>
-      </c>
-      <c r="L77" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M77" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N77" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="O77" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="P77" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="Q77" s="5" t="s">
-        <v>537</v>
       </c>
       <c r="R77" s="3">
         <v>42.893143999999999</v>
@@ -7930,13 +7941,13 @@
     </row>
     <row r="78" spans="1:19" ht="15.75" thickBot="1">
       <c r="A78" s="42" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="B78" s="77" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="C78" s="42" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="D78" s="42" t="s">
         <v>14</v>
@@ -7957,10 +7968,10 @@
         <v>6</v>
       </c>
       <c r="J78" s="43" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="K78" s="42" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="L78" s="42" t="s">
         <v>6</v>
@@ -7972,13 +7983,13 @@
         <v>105</v>
       </c>
       <c r="O78" s="1" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="P78" s="1" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="Q78" s="5" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="R78" s="75">
         <v>43.081150000000001</v>
@@ -7989,25 +8000,25 @@
     </row>
     <row r="79" spans="1:19" ht="15.75" thickBot="1">
       <c r="A79" s="8" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="B79" s="76" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="E79" s="11">
         <v>48</v>
       </c>
       <c r="F79" s="11" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="G79" s="8" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="H79" s="8" t="s">
         <v>25</v>
@@ -8016,10 +8027,10 @@
         <v>124</v>
       </c>
       <c r="J79" s="11" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="K79" s="8" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="L79" s="8" t="s">
         <v>6</v>
@@ -8028,16 +8039,16 @@
         <v>7</v>
       </c>
       <c r="N79" s="12" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="O79" s="1" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="P79" s="1" t="s">
         <v>213</v>
       </c>
       <c r="Q79" s="5" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="R79" s="31">
         <v>43.091703000000003</v>
@@ -8048,13 +8059,13 @@
     </row>
     <row r="80" spans="1:19" ht="15.75" thickBot="1">
       <c r="A80" s="1" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="B80" s="29" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>14</v>
@@ -8075,10 +8086,10 @@
         <v>124</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="L80" s="1" t="s">
         <v>6</v>
@@ -8090,13 +8101,13 @@
         <v>23</v>
       </c>
       <c r="O80" s="1" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="P80" s="1" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="Q80" s="5" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="R80" s="36">
         <v>43.094448999999997</v>
@@ -8107,13 +8118,13 @@
     </row>
     <row r="81" spans="1:19" ht="15.75" thickBot="1">
       <c r="A81" s="37" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="B81" s="77" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="C81" s="83" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="D81" s="42" t="s">
         <v>14</v>
@@ -8134,10 +8145,10 @@
         <v>6</v>
       </c>
       <c r="J81" s="43" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="K81" s="42" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="L81" s="37" t="s">
         <v>6</v>
@@ -8149,13 +8160,13 @@
         <v>28</v>
       </c>
       <c r="O81" s="1" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="P81" s="1" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="Q81" s="5" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="R81" s="40">
         <v>43.074764999999999</v>
@@ -8166,13 +8177,13 @@
     </row>
     <row r="82" spans="1:19" ht="15.75" thickBot="1">
       <c r="A82" s="8" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="B82" s="76" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="D82" s="8" t="s">
         <v>14</v>
@@ -8193,7 +8204,7 @@
         <v>124</v>
       </c>
       <c r="J82" s="11" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="K82" s="8" t="s">
         <v>26</v>
@@ -8208,13 +8219,13 @@
         <v>44</v>
       </c>
       <c r="O82" s="1" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="P82" s="1" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="Q82" s="5" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="R82" s="31">
         <v>43.015559099999997</v>
@@ -8225,13 +8236,13 @@
     </row>
     <row r="83" spans="1:19" ht="15.75" thickBot="1">
       <c r="A83" s="1" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="B83" s="29" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>14</v>
@@ -8243,19 +8254,19 @@
         <v>64.849999999999994</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="H83" s="1" t="s">
         <v>20</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="J83" s="3">
         <v>2</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="L83" s="1" t="s">
         <v>6</v>
@@ -8267,13 +8278,13 @@
         <v>25.43</v>
       </c>
       <c r="O83" s="1" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="P83" s="1" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="Q83" s="5" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="R83" s="36">
         <v>43.075826999999997</v>
@@ -8284,16 +8295,16 @@
     </row>
     <row r="84" spans="1:19" ht="15.75" thickBot="1">
       <c r="A84" s="1" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B84" s="29" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="E84" s="3">
         <v>38</v>
@@ -8302,19 +8313,19 @@
         <v>15</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>25</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="J84" s="3">
         <v>1</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="L84" s="1" t="s">
         <v>6</v>
@@ -8326,13 +8337,13 @@
         <v>15</v>
       </c>
       <c r="O84" s="1" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="P84" s="1" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="Q84" s="5" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="R84" s="36">
         <v>43.190806000000002</v>
@@ -8343,13 +8354,13 @@
     </row>
     <row r="85" spans="1:19" ht="15.75" thickBot="1">
       <c r="A85" s="1" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B85" s="29" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>14</v>
@@ -8373,7 +8384,7 @@
         <v>134</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="L85" s="1" t="s">
         <v>6</v>
@@ -8385,10 +8396,10 @@
         <v>152</v>
       </c>
       <c r="O85" s="1" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="P85" s="1" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="Q85" s="1" t="s">
         <v>7</v>
@@ -8402,16 +8413,16 @@
     </row>
     <row r="86" spans="1:19" s="38" customFormat="1" ht="15.75" thickBot="1">
       <c r="A86" s="1" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="B86" s="29" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="E86" s="3">
         <v>318</v>
@@ -8420,7 +8431,7 @@
         <v>92</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>20</v>
@@ -8429,10 +8440,10 @@
         <v>4</v>
       </c>
       <c r="J86" s="136" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="L86" s="1" t="s">
         <v>6</v>
@@ -8444,13 +8455,13 @@
         <v>42</v>
       </c>
       <c r="O86" s="1" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="P86" s="1" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="Q86" s="5" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="R86" s="36">
         <v>42.839964000000002</v>
@@ -8461,16 +8472,16 @@
     </row>
     <row r="87" spans="1:19" ht="15.75" thickBot="1">
       <c r="A87" s="13" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="B87" s="84" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="C87" s="15" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="D87" s="60" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="E87" s="16">
         <v>130</v>
@@ -8479,16 +8490,16 @@
         <v>43.4</v>
       </c>
       <c r="G87" s="14" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="H87" s="14" t="s">
         <v>20</v>
       </c>
       <c r="I87" s="14" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="J87" s="17" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="K87" s="14" t="s">
         <v>16</v>
@@ -8497,19 +8508,19 @@
         <v>15</v>
       </c>
       <c r="M87" s="14" t="s">
+        <v>574</v>
+      </c>
+      <c r="N87" s="18" t="s">
+        <v>575</v>
+      </c>
+      <c r="O87" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="P87" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="Q87" s="5" t="s">
         <v>578</v>
-      </c>
-      <c r="N87" s="18" t="s">
-        <v>579</v>
-      </c>
-      <c r="O87" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="P87" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="Q87" s="5" t="s">
-        <v>582</v>
       </c>
       <c r="R87" s="19">
         <v>42.838853999999998</v>
@@ -8520,16 +8531,16 @@
     </row>
     <row r="88" spans="1:19" ht="15.75" thickBot="1">
       <c r="A88" s="34" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="B88" s="29" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="C88" s="73" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="E88" s="91">
         <v>100</v>
@@ -8538,10 +8549,10 @@
         <v>65</v>
       </c>
       <c r="G88" s="85" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="I88" s="1" t="s">
         <v>6</v>
@@ -8562,13 +8573,13 @@
         <v>65</v>
       </c>
       <c r="O88" s="85" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="P88" s="85" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="Q88" s="87" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="R88" s="74">
         <v>42.582075000000003</v>
@@ -8579,16 +8590,16 @@
     </row>
     <row r="89" spans="1:19" ht="15.75" thickBot="1">
       <c r="A89" s="119" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="B89" s="85" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="C89" s="120" t="s">
         <v>13</v>
       </c>
       <c r="D89" s="87" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="E89" s="121">
         <v>450</v>
@@ -8597,10 +8608,10 @@
         <v>229</v>
       </c>
       <c r="G89" s="123" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="H89" s="123" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="I89" s="123" t="s">
         <v>15</v>
@@ -8615,19 +8626,19 @@
         <v>15</v>
       </c>
       <c r="M89" s="123" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="N89" s="124">
         <v>80</v>
       </c>
       <c r="O89" s="85" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="P89" s="85" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="Q89" s="87" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="R89" s="121">
         <v>42.516069999999999</v>
@@ -8638,28 +8649,28 @@
     </row>
     <row r="90" spans="1:19" ht="15.75" thickBot="1">
       <c r="A90" s="125" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="B90" s="85" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="C90" s="126" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="D90" s="87" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="E90" s="91">
         <v>64.400000000000006</v>
       </c>
       <c r="F90" s="88" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="G90" s="85" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="H90" s="85" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="I90" s="85" t="s">
         <v>15</v>
@@ -8680,13 +8691,13 @@
         <v>19.3</v>
       </c>
       <c r="O90" s="85" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="P90" s="85" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="Q90" s="87" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="R90" s="127">
         <v>42.551267000000003</v>
@@ -8697,16 +8708,16 @@
     </row>
     <row r="91" spans="1:19" ht="15.75" thickBot="1">
       <c r="A91" s="37" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="C91" s="38" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="E91" s="75">
         <v>47</v>
@@ -8715,10 +8726,10 @@
         <v>41.9</v>
       </c>
       <c r="G91" s="77" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="H91" s="42" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="I91" s="42" t="s">
         <v>109</v>
@@ -8727,25 +8738,25 @@
         <v>3</v>
       </c>
       <c r="K91" s="42" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="L91" s="42" t="s">
         <v>15</v>
       </c>
       <c r="M91" s="42" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="N91" s="41">
         <v>15.5</v>
       </c>
       <c r="O91" s="1" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="P91" s="85" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="Q91" s="87" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="R91" s="128">
         <v>42.856254999999997</v>
@@ -8756,16 +8767,16 @@
     </row>
     <row r="92" spans="1:19" ht="15.75" thickBot="1">
       <c r="A92" s="125" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="B92" s="85" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="C92" s="126" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="D92" s="87" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="E92" s="91">
         <v>40</v>
@@ -8777,7 +8788,7 @@
         <v>81</v>
       </c>
       <c r="H92" s="85" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="I92" s="85" t="s">
         <v>15</v>
@@ -8786,7 +8797,7 @@
         <v>1</v>
       </c>
       <c r="K92" s="85" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="L92" s="85" t="s">
         <v>6</v>
@@ -8798,13 +8809,13 @@
         <v>20</v>
       </c>
       <c r="O92" s="85" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="P92" s="85" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="Q92" s="87" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="R92" s="127">
         <v>42.777847000000001</v>
@@ -8815,16 +8826,16 @@
     </row>
     <row r="93" spans="1:19" ht="15.75" thickBot="1">
       <c r="A93" s="37" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="C93" s="38" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="E93" s="75">
         <v>30</v>
@@ -8851,19 +8862,19 @@
         <v>15</v>
       </c>
       <c r="M93" s="42" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="N93" s="41">
         <v>41</v>
       </c>
       <c r="O93" s="1" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="P93" s="85" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="Q93" s="87" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="R93" s="128">
         <v>42.665654000000004</v>
@@ -8874,16 +8885,16 @@
     </row>
     <row r="94" spans="1:19" ht="15.75" thickBot="1">
       <c r="A94" s="125" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="B94" s="85" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="C94" s="126" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="D94" s="87" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="E94" s="91">
         <v>224</v>
@@ -8892,10 +8903,10 @@
         <v>71</v>
       </c>
       <c r="G94" s="85" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="H94" s="85" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="I94" s="85" t="s">
         <v>15</v>
@@ -8910,19 +8921,19 @@
         <v>15</v>
       </c>
       <c r="M94" s="85" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="N94" s="90">
         <v>71</v>
       </c>
       <c r="O94" s="85" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="P94" s="85" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="Q94" s="87" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="R94" s="127">
         <v>42.632905999999998</v>
@@ -8933,28 +8944,28 @@
     </row>
     <row r="95" spans="1:19" ht="15.75" thickBot="1">
       <c r="A95" s="13" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="C95" s="38" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="E95" s="16">
         <v>11.6</v>
       </c>
       <c r="F95" s="17" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="G95" s="14" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="H95" s="14" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="I95" s="14" t="s">
         <v>6</v>
@@ -8963,7 +8974,7 @@
         <v>2</v>
       </c>
       <c r="K95" s="14" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="L95" s="14" t="s">
         <v>6</v>
@@ -8975,13 +8986,13 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="P95" s="85" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="Q95" s="87" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="R95" s="128">
         <v>42.672735000000003</v>
@@ -8992,16 +9003,16 @@
     </row>
     <row r="96" spans="1:19" ht="15.75" thickBot="1">
       <c r="A96" s="119" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="B96" s="85" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="C96" s="120" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="D96" s="87" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="E96" s="129">
         <v>125</v>
@@ -9010,10 +9021,10 @@
         <v>30</v>
       </c>
       <c r="G96" s="123" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="H96" s="123" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="I96" s="123" t="s">
         <v>15</v>
@@ -9034,13 +9045,13 @@
         <v>19.600000000000001</v>
       </c>
       <c r="O96" s="85" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="P96" s="85" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="Q96" s="87" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="R96" s="121">
         <v>42.675530999999999</v>
@@ -9051,16 +9062,16 @@
     </row>
     <row r="97" spans="1:19" ht="15.75" thickBot="1">
       <c r="A97" s="125" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="B97" s="85" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="C97" s="126" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="D97" s="87" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="E97" s="91">
         <v>200</v>
@@ -9069,10 +9080,10 @@
         <v>128</v>
       </c>
       <c r="G97" s="85" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="H97" s="85" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="I97" s="85" t="s">
         <v>15</v>
@@ -9081,25 +9092,25 @@
         <v>4</v>
       </c>
       <c r="K97" s="85" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="L97" s="85" t="s">
         <v>15</v>
       </c>
       <c r="M97" s="85" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="N97" s="90">
         <v>74</v>
       </c>
       <c r="O97" s="130" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="P97" s="85" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="Q97" s="87" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="R97" s="127">
         <v>42.768790000000003</v>
@@ -9110,16 +9121,16 @@
     </row>
     <row r="98" spans="1:19" ht="15.75" thickBot="1">
       <c r="A98" s="13" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="C98" s="15" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="E98" s="16">
         <v>50</v>
@@ -9128,7 +9139,7 @@
         <v>29</v>
       </c>
       <c r="G98" s="14" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="H98" s="14" t="s">
         <v>20</v>
@@ -9137,7 +9148,7 @@
         <v>124</v>
       </c>
       <c r="J98" s="17" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="K98" s="14" t="s">
         <v>26</v>
@@ -9152,13 +9163,13 @@
         <v>4.3</v>
       </c>
       <c r="O98" s="79" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="P98" s="85" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="Q98" s="87" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="R98" s="19">
         <v>42.632731999999997</v>
@@ -9169,16 +9180,16 @@
     </row>
     <row r="99" spans="1:19" ht="15.75" thickBot="1">
       <c r="A99" s="28" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="C99" s="30" t="s">
         <v>13</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="E99" s="31">
         <v>26.66</v>
@@ -9187,10 +9198,10 @@
         <v>26.66</v>
       </c>
       <c r="G99" s="8" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="H99" s="8" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="I99" s="8" t="s">
         <v>15</v>
@@ -9199,25 +9210,25 @@
         <v>1</v>
       </c>
       <c r="K99" s="8" t="s">
+        <v>659</v>
+      </c>
+      <c r="L99" s="8" t="s">
+        <v>660</v>
+      </c>
+      <c r="M99" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="N99" s="12" t="s">
+        <v>661</v>
+      </c>
+      <c r="O99" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="P99" s="95" t="s">
         <v>663</v>
       </c>
-      <c r="L99" s="8" t="s">
+      <c r="Q99" s="5" t="s">
         <v>664</v>
-      </c>
-      <c r="M99" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="N99" s="12" t="s">
-        <v>665</v>
-      </c>
-      <c r="O99" s="1" t="s">
-        <v>666</v>
-      </c>
-      <c r="P99" s="95" t="s">
-        <v>667</v>
-      </c>
-      <c r="Q99" s="5" t="s">
-        <v>668</v>
       </c>
       <c r="R99" s="32">
         <v>43.457073000000001</v>
@@ -9228,16 +9239,16 @@
     </row>
     <row r="100" spans="1:19" ht="15.75" thickBot="1">
       <c r="A100" s="34" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="B100" s="29" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="C100" s="73" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="E100" s="36">
         <v>13.45</v>
@@ -9246,10 +9257,10 @@
         <v>13.45</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="I100" s="1" t="s">
         <v>6</v>
@@ -9270,13 +9281,13 @@
         <v>13</v>
       </c>
       <c r="O100" s="1" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="P100" s="95" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="Q100" s="5" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="R100" s="74">
         <v>43.283889000000002</v>
@@ -9287,16 +9298,16 @@
     </row>
     <row r="101" spans="1:19" ht="15.75" thickBot="1">
       <c r="A101" s="83" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="B101" s="29" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="C101" s="38" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="E101" s="40">
         <v>26.45</v>
@@ -9305,10 +9316,10 @@
         <v>17.75</v>
       </c>
       <c r="G101" s="37" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="H101" s="42" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="I101" s="42" t="s">
         <v>54</v>
@@ -9317,7 +9328,7 @@
         <v>1.75</v>
       </c>
       <c r="K101" s="42" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="L101" s="37" t="s">
         <v>6</v>
@@ -9329,13 +9340,13 @@
         <v>9</v>
       </c>
       <c r="O101" s="1" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="P101" s="95" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="Q101" s="5" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="R101" s="40">
         <v>43.305276999999997</v>
@@ -9346,16 +9357,16 @@
     </row>
     <row r="102" spans="1:19" ht="16.5" thickBot="1">
       <c r="A102" s="28" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="B102" s="29" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="C102" s="30" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="E102" s="31">
         <v>240</v>
@@ -9364,19 +9375,19 @@
         <v>26</v>
       </c>
       <c r="G102" s="8" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="H102" s="8" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="I102" s="8" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="J102" s="11">
         <v>1</v>
       </c>
       <c r="K102" s="8" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="L102" s="8" t="s">
         <v>6</v>
@@ -9388,13 +9399,13 @@
         <v>24</v>
       </c>
       <c r="O102" s="131" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="P102" s="132" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="Q102" s="2" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="R102" s="32">
         <v>43.522638000000001</v>
@@ -9405,16 +9416,16 @@
     </row>
     <row r="103" spans="1:19" ht="16.5" thickBot="1">
       <c r="A103" s="34" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="B103" s="29" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="C103" s="73" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="E103" s="36">
         <v>80</v>
@@ -9423,19 +9434,19 @@
         <v>50</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="J103" s="3">
         <v>1</v>
       </c>
       <c r="K103" s="1" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="L103" s="1" t="s">
         <v>6</v>
@@ -9447,13 +9458,13 @@
         <v>45</v>
       </c>
       <c r="O103" s="131" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="P103" s="132" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="Q103" s="2" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="R103" s="74">
         <v>43.528713000000003</v>
@@ -9464,16 +9475,16 @@
     </row>
     <row r="104" spans="1:19" ht="15.75" thickBot="1">
       <c r="A104" s="1" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="B104" s="29" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="E104" s="3">
         <v>19.8</v>
@@ -9482,7 +9493,7 @@
         <v>19.8</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="H104" s="1" t="s">
         <v>20</v>
@@ -9494,7 +9505,7 @@
         <v>81</v>
       </c>
       <c r="K104" s="1" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="L104" s="1" t="s">
         <v>6</v>
@@ -9506,13 +9517,13 @@
         <v>15.2</v>
       </c>
       <c r="O104" s="1" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="P104" s="95" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="Q104" s="5" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="R104" s="3">
         <v>43.264665000000001</v>
@@ -9523,168 +9534,169 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2" display="http://www.cambriawisconsin.com/"/>
-    <hyperlink ref="D2" r:id="rId3" display="http://www.mr-bk.com/"/>
-    <hyperlink ref="Q2" r:id="rId4"/>
-    <hyperlink ref="Q3" r:id="rId5"/>
-    <hyperlink ref="Q4" r:id="rId6"/>
-    <hyperlink ref="D7" r:id="rId7" display="http://www.brooklynwi.gov/"/>
-    <hyperlink ref="D40" r:id="rId8"/>
-    <hyperlink ref="D6" r:id="rId9"/>
-    <hyperlink ref="D8" r:id="rId10"/>
-    <hyperlink ref="D9" r:id="rId11"/>
-    <hyperlink ref="D51" r:id="rId12"/>
-    <hyperlink ref="D29" r:id="rId13"/>
-    <hyperlink ref="D28" r:id="rId14"/>
-    <hyperlink ref="D60" r:id="rId15"/>
-    <hyperlink ref="D17" r:id="rId16"/>
-    <hyperlink ref="D19" r:id="rId17"/>
-    <hyperlink ref="D52" r:id="rId18"/>
-    <hyperlink ref="D61" r:id="rId19"/>
-    <hyperlink ref="D26" r:id="rId20"/>
-    <hyperlink ref="D27" r:id="rId21"/>
-    <hyperlink ref="D34" r:id="rId22"/>
-    <hyperlink ref="D43" r:id="rId23"/>
-    <hyperlink ref="D46" r:id="rId24"/>
-    <hyperlink ref="D20" r:id="rId25"/>
-    <hyperlink ref="D39" r:id="rId26"/>
-    <hyperlink ref="D38" r:id="rId27"/>
-    <hyperlink ref="D53" r:id="rId28"/>
-    <hyperlink ref="D55" r:id="rId29"/>
-    <hyperlink ref="D56" r:id="rId30"/>
-    <hyperlink ref="D12" r:id="rId31"/>
-    <hyperlink ref="D13" r:id="rId32"/>
-    <hyperlink ref="D16" r:id="rId33"/>
-    <hyperlink ref="D15" r:id="rId34"/>
-    <hyperlink ref="D14" r:id="rId35"/>
-    <hyperlink ref="D24" r:id="rId36"/>
-    <hyperlink ref="D25" r:id="rId37"/>
-    <hyperlink ref="D49" r:id="rId38"/>
-    <hyperlink ref="D48" r:id="rId39"/>
-    <hyperlink ref="D47" r:id="rId40"/>
-    <hyperlink ref="D42" r:id="rId41"/>
-    <hyperlink ref="D45" r:id="rId42"/>
-    <hyperlink ref="D58" r:id="rId43" display="http://inwisconsin.com/wp-content/uploads/2015/04/Verona.pdf"/>
-    <hyperlink ref="Q5" r:id="rId44"/>
-    <hyperlink ref="Q6" r:id="rId45"/>
-    <hyperlink ref="Q8" r:id="rId46"/>
-    <hyperlink ref="Q9" r:id="rId47"/>
-    <hyperlink ref="Q10" r:id="rId48"/>
-    <hyperlink ref="Q11" r:id="rId49"/>
-    <hyperlink ref="Q12" r:id="rId50"/>
-    <hyperlink ref="Q13" r:id="rId51"/>
-    <hyperlink ref="Q14" r:id="rId52"/>
-    <hyperlink ref="Q15" r:id="rId53"/>
-    <hyperlink ref="Q16" r:id="rId54"/>
-    <hyperlink ref="Q17" r:id="rId55"/>
-    <hyperlink ref="Q18" r:id="rId56"/>
-    <hyperlink ref="Q19" r:id="rId57"/>
-    <hyperlink ref="Q20" r:id="rId58"/>
-    <hyperlink ref="Q21" r:id="rId59"/>
-    <hyperlink ref="Q22" r:id="rId60"/>
-    <hyperlink ref="Q23" r:id="rId61"/>
-    <hyperlink ref="Q24" r:id="rId62"/>
-    <hyperlink ref="Q25" r:id="rId63"/>
-    <hyperlink ref="Q26" r:id="rId64"/>
-    <hyperlink ref="Q27" r:id="rId65"/>
-    <hyperlink ref="Q28" r:id="rId66"/>
-    <hyperlink ref="Q30" r:id="rId67"/>
-    <hyperlink ref="Q29" r:id="rId68"/>
-    <hyperlink ref="Q31" r:id="rId69"/>
-    <hyperlink ref="Q32" r:id="rId70"/>
-    <hyperlink ref="Q33" r:id="rId71"/>
-    <hyperlink ref="Q34" r:id="rId72"/>
-    <hyperlink ref="Q35" r:id="rId73"/>
-    <hyperlink ref="Q36" r:id="rId74"/>
-    <hyperlink ref="Q37" r:id="rId75"/>
-    <hyperlink ref="Q38" r:id="rId76"/>
-    <hyperlink ref="Q39" r:id="rId77"/>
-    <hyperlink ref="Q40" r:id="rId78"/>
-    <hyperlink ref="Q41" r:id="rId79"/>
-    <hyperlink ref="Q42" r:id="rId80"/>
-    <hyperlink ref="Q43" r:id="rId81"/>
-    <hyperlink ref="Q44" r:id="rId82"/>
-    <hyperlink ref="Q45" r:id="rId83"/>
-    <hyperlink ref="Q46" r:id="rId84"/>
-    <hyperlink ref="Q47" r:id="rId85"/>
-    <hyperlink ref="Q48" r:id="rId86"/>
-    <hyperlink ref="Q49" r:id="rId87"/>
-    <hyperlink ref="Q50" r:id="rId88"/>
-    <hyperlink ref="Q51" r:id="rId89"/>
-    <hyperlink ref="Q52" r:id="rId90"/>
-    <hyperlink ref="Q53" r:id="rId91"/>
-    <hyperlink ref="Q54" r:id="rId92"/>
-    <hyperlink ref="Q55" r:id="rId93"/>
-    <hyperlink ref="Q56" r:id="rId94"/>
-    <hyperlink ref="Q57" r:id="rId95"/>
-    <hyperlink ref="Q58" r:id="rId96"/>
-    <hyperlink ref="Q59" r:id="rId97"/>
-    <hyperlink ref="Q60" r:id="rId98"/>
-    <hyperlink ref="Q61" r:id="rId99"/>
-    <hyperlink ref="D64" r:id="rId100"/>
-    <hyperlink ref="D65" r:id="rId101"/>
-    <hyperlink ref="D67" r:id="rId102"/>
-    <hyperlink ref="D68" r:id="rId103"/>
-    <hyperlink ref="D69" r:id="rId104"/>
-    <hyperlink ref="D71" r:id="rId105"/>
-    <hyperlink ref="Q62" r:id="rId106"/>
-    <hyperlink ref="Q63" r:id="rId107"/>
-    <hyperlink ref="Q64" r:id="rId108"/>
-    <hyperlink ref="Q65" r:id="rId109"/>
-    <hyperlink ref="Q66" r:id="rId110"/>
-    <hyperlink ref="Q67" r:id="rId111"/>
-    <hyperlink ref="Q68" r:id="rId112"/>
-    <hyperlink ref="Q69" r:id="rId113"/>
-    <hyperlink ref="Q70" r:id="rId114"/>
-    <hyperlink ref="Q71" r:id="rId115"/>
-    <hyperlink ref="Q72" r:id="rId116"/>
-    <hyperlink ref="D73" r:id="rId117"/>
-    <hyperlink ref="D76" r:id="rId118"/>
-    <hyperlink ref="D74" r:id="rId119"/>
-    <hyperlink ref="D75" r:id="rId120"/>
-    <hyperlink ref="Q73" r:id="rId121"/>
-    <hyperlink ref="Q74" r:id="rId122"/>
-    <hyperlink ref="Q75" r:id="rId123"/>
-    <hyperlink ref="Q76" r:id="rId124"/>
-    <hyperlink ref="D87" r:id="rId125"/>
-    <hyperlink ref="D79" r:id="rId126"/>
-    <hyperlink ref="Q77" r:id="rId127"/>
-    <hyperlink ref="Q78" r:id="rId128"/>
-    <hyperlink ref="Q80" r:id="rId129"/>
-    <hyperlink ref="Q81" r:id="rId130"/>
-    <hyperlink ref="Q82" r:id="rId131"/>
-    <hyperlink ref="Q79" r:id="rId132"/>
-    <hyperlink ref="Q83" r:id="rId133"/>
-    <hyperlink ref="Q84" r:id="rId134"/>
-    <hyperlink ref="Q87" r:id="rId135"/>
-    <hyperlink ref="D93" r:id="rId136"/>
-    <hyperlink ref="D88" r:id="rId137"/>
-    <hyperlink ref="D90" r:id="rId138"/>
-    <hyperlink ref="D89" r:id="rId139"/>
-    <hyperlink ref="D92" r:id="rId140"/>
-    <hyperlink ref="D96" r:id="rId141"/>
-    <hyperlink ref="Q88" r:id="rId142"/>
-    <hyperlink ref="Q89" r:id="rId143"/>
-    <hyperlink ref="Q90" r:id="rId144"/>
-    <hyperlink ref="Q91" r:id="rId145"/>
-    <hyperlink ref="Q92" r:id="rId146"/>
-    <hyperlink ref="Q93" r:id="rId147"/>
-    <hyperlink ref="Q94" r:id="rId148"/>
-    <hyperlink ref="Q95" r:id="rId149"/>
-    <hyperlink ref="Q96" r:id="rId150"/>
-    <hyperlink ref="Q97" r:id="rId151"/>
-    <hyperlink ref="Q98" r:id="rId152"/>
-    <hyperlink ref="D99" r:id="rId153"/>
-    <hyperlink ref="D103" r:id="rId154"/>
-    <hyperlink ref="Q99" r:id="rId155"/>
-    <hyperlink ref="Q100" r:id="rId156"/>
-    <hyperlink ref="Q101" r:id="rId157"/>
-    <hyperlink ref="Q102" r:id="rId158"/>
-    <hyperlink ref="Q103" r:id="rId159"/>
-    <hyperlink ref="Q104" r:id="rId160"/>
-    <hyperlink ref="Q86" r:id="rId161"/>
-    <hyperlink ref="D86" r:id="rId162"/>
+    <hyperlink ref="D4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D3" r:id="rId2" display="http://www.cambriawisconsin.com/" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D2" r:id="rId3" display="http://www.mr-bk.com/" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="Q2" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="Q3" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="Q4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D7" r:id="rId7" display="http://www.brooklynwi.gov/" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="D40" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="D6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="D8" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="D9" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="D51" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="D29" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="D28" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="D60" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="D17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="D19" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="D52" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="D61" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="D26" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="D27" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="D34" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="D43" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="D46" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="D20" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="D39" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="D38" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="D53" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="D55" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="D56" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="D12" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="D13" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="D16" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="D15" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="D14" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="D24" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="D25" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="D49" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="D48" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="D47" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="D42" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="D45" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="D58" r:id="rId43" display="http://inwisconsin.com/wp-content/uploads/2015/04/Verona.pdf" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="Q5" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="Q6" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="Q8" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="Q9" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="Q10" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="Q11" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="Q12" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="Q13" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="Q14" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="Q15" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="Q16" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="Q17" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="Q18" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="Q19" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="Q20" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="Q21" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="Q22" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="Q23" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="Q24" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="Q25" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="Q26" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="Q27" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="Q28" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="Q30" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="Q29" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="Q31" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="Q32" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="Q33" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="Q34" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="Q35" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="Q36" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="Q37" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="Q38" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="Q39" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="Q40" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="Q41" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="Q42" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="Q43" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="Q44" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="Q45" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="Q46" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="Q47" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="Q48" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="Q49" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="Q50" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="Q51" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="Q52" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="Q53" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="Q54" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="Q55" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="Q56" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="Q57" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="Q58" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="Q59" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="Q60" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="Q61" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="D64" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="D65" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="D67" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="D68" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="D69" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="D71" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="Q62" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="Q63" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="Q64" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="Q65" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="Q66" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="Q67" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="Q68" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="Q69" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="Q70" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="Q71" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="Q72" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="D73" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="D76" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="D74" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="D75" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="Q73" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="Q74" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="Q75" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="Q76" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="D87" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="D79" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="Q77" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="Q78" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="Q80" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="Q81" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="Q82" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="Q79" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="Q83" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="Q84" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="Q87" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="D93" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="D88" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="D90" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="D89" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="D92" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="D96" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="Q88" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="Q89" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="Q90" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="Q91" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="Q92" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="Q93" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="Q94" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="Q95" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="Q96" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="Q97" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="Q98" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="D99" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="D103" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="Q99" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="Q100" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="Q101" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="Q102" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="Q103" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="Q104" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="Q86" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="D86" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="D35" r:id="rId163" xr:uid="{226F0880-4151-4BB3-9F3E-0140F787CE1C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
